--- a/finacial documents/use of funds.xlsx
+++ b/finacial documents/use of funds.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjolalekan/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjolalekan/Documents/interdisciplinary/interdisciplinary/finacial documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BECD60D-99B7-1F4E-8791-39FA81B50113}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E010AC3-0113-754F-B592-C3420F9679B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{C1123D5A-4C34-AF42-BFDD-5349166124A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C1123D5A-4C34-AF42-BFDD-5349166124A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t xml:space="preserve">Equipment </t>
   </si>
@@ -98,24 +99,9 @@
     <t>Salaries and General Expenses</t>
   </si>
   <si>
-    <t>Owner's equity Savings</t>
-  </si>
-  <si>
-    <t>investments 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advisory fees </t>
-  </si>
-  <si>
-    <t>Payables</t>
-  </si>
-  <si>
     <t>Net tangible Fixed Assets</t>
   </si>
   <si>
-    <t xml:space="preserve">Debentures </t>
-  </si>
-  <si>
     <t>Insurance</t>
   </si>
   <si>
@@ -125,13 +111,22 @@
     <t>Total Use of Funds</t>
   </si>
   <si>
-    <t>Sponsor Equity</t>
-  </si>
-  <si>
     <t>Loan(Assuming)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cash Sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owner's equity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Fees </t>
+  </si>
+  <si>
+    <t>Profit</t>
   </si>
 </sst>
 </file>
@@ -171,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -194,11 +189,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -206,6 +223,15 @@
     <xf numFmtId="42" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,17 +552,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2D5FF5-452E-0E48-8750-229DDA4DE02E}">
-  <dimension ref="A4:L19"/>
+  <dimension ref="A4:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
     <col min="11" max="11" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,16 +571,15 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -563,18 +589,17 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3">
-        <v>40000</v>
+        <v>154225</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="3">
-        <v>22000</v>
+      <c r="J5" s="3">
+        <v>12000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -585,18 +610,17 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3">
-        <v>100000</v>
+        <v>18000</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="3">
-        <v>25000</v>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4000</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -608,18 +632,17 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G7" s="3">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="3">
-        <v>140000</v>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10000</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -630,19 +653,14 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="3">
-        <v>53000</v>
-      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3000</v>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -652,19 +670,15 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="3">
-        <v>30000</v>
-      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="3">
-        <v>30000</v>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="3">
+        <f>43680+3600+840+40000</f>
+        <v>88120</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -674,19 +688,14 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3">
-        <v>20000</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="3">
-        <v>125000</v>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -696,20 +705,14 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="4">
-        <f>K12-G12</f>
-        <v>131800</v>
-      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="3">
-        <v>40000</v>
+      <c r="J11" s="3">
+        <v>24000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -719,27 +722,35 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="6">
-        <f>SUM(G5:G10)</f>
-        <v>253200</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="6">
-        <f>SUM(K5:K11)</f>
-        <v>385000</v>
+      <c r="I12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="11">
+        <v>41105</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
+      <c r="F13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="6">
+        <f>SUM(G5:G9)</f>
+        <v>182225</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="6">
+        <f>SUM(J5:J12)</f>
+        <v>182225</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -761,9 +772,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
-        <v>33</v>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
